--- a/Planung/Arbeitspakete.xlsx
+++ b/Planung/Arbeitspakete.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
-  <si>
-    <t>GUI</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Texturen erstellen</t>
   </si>
@@ -44,9 +41,6 @@
     <t>Navigation implementieren</t>
   </si>
   <si>
-    <t>Logik</t>
-  </si>
-  <si>
     <t>Flugbahn</t>
   </si>
   <si>
@@ -83,53 +77,71 @@
     <t>Physikalische Berechnungen</t>
   </si>
   <si>
-    <t>Spiel</t>
-  </si>
-  <si>
-    <t>Dokumentation</t>
-  </si>
-  <si>
-    <t>Spielanleitung</t>
-  </si>
-  <si>
-    <t>Codedokumentation</t>
-  </si>
-  <si>
-    <t>Testen</t>
-  </si>
-  <si>
-    <t>Implementierung</t>
-  </si>
-  <si>
-    <t>Spielen</t>
-  </si>
-  <si>
-    <t>22 MT</t>
-  </si>
-  <si>
-    <t>3,5 MT</t>
-  </si>
-  <si>
-    <t>0,5 MT</t>
-  </si>
-  <si>
-    <t>8 MT</t>
-  </si>
-  <si>
-    <t>14 MT</t>
-  </si>
-  <si>
-    <t>6,5 MT</t>
-  </si>
-  <si>
     <t>Level</t>
+  </si>
+  <si>
+    <t>Gesamt</t>
+  </si>
+  <si>
+    <t>1 Projektmanagement</t>
+  </si>
+  <si>
+    <t>2 Anforderungsanalyse</t>
+  </si>
+  <si>
+    <t>3 Know-How-Generierung</t>
+  </si>
+  <si>
+    <t>4 Entwurf</t>
+  </si>
+  <si>
+    <t>Projektphase</t>
+  </si>
+  <si>
+    <t>5 Implementierung</t>
+  </si>
+  <si>
+    <t>5.1 GUI</t>
+  </si>
+  <si>
+    <t>5.2 Logik</t>
+  </si>
+  <si>
+    <t>6 Dokumentation</t>
+  </si>
+  <si>
+    <t>7 Testen</t>
+  </si>
+  <si>
+    <t>8 Übergabe</t>
+  </si>
+  <si>
+    <t>6.1 Spielanleitung</t>
+  </si>
+  <si>
+    <t>6.2 Codedokumentation</t>
+  </si>
+  <si>
+    <t>Arbeitspaket</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>Arbeitspaket-Paket</t>
+  </si>
+  <si>
+    <t>Dauer [Menschentage]</t>
+  </si>
+  <si>
+    <t>7.1 Spielen durch Tester</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,13 +149,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -155,13 +204,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="20 % - Akzent1" xfId="1" builtinId="30"/>
+    <cellStyle name="40 % - Akzent1" xfId="2" builtinId="31"/>
+    <cellStyle name="60 % - Akzent1" xfId="3" builtinId="32"/>
+    <cellStyle name="Akzent5" xfId="4" builtinId="45"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -440,192 +502,388 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F20"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2">
+      <c r="E19" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D43" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>27</v>
+      <c r="E43" s="5">
+        <v>40.200000000000003</v>
       </c>
     </row>
   </sheetData>
